--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6FC1B0-B62F-42AD-B37F-399A3ADBBE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136C359E-8EBD-44D3-9668-A3934D02F11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Czech" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Wg</t>
   </si>
@@ -79,6 +80,12 @@
   </si>
   <si>
     <t>NGC-3478/T2265</t>
+  </si>
+  <si>
+    <t>Czech Market</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1734</t>
   </si>
 </sst>
 </file>
@@ -599,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE8CD95-9F65-4D3B-B38B-7AA37A3A2A3A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,4 +697,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D50661C-77E9-46BE-8028-3B29F065F6FB}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136C359E-8EBD-44D3-9668-A3934D02F11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E0EE0D-8CFD-4C60-9349-75A6EFD6D09C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Wg</t>
   </si>
@@ -86,6 +87,12 @@
   </si>
   <si>
     <t>NGC-3477/T1734</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2344</t>
   </si>
 </sst>
 </file>
@@ -703,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D50661C-77E9-46BE-8028-3B29F065F6FB}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,4 +801,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EC94F7-4C71-4405-925F-BE1938A291C2}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E0EE0D-8CFD-4C60-9349-75A6EFD6D09C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9409CA86-EE6A-4842-8B63-B6829C21755F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -93,6 +94,12 @@
   </si>
   <si>
     <t>NGC-3476/T2344</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2404</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -807,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EC94F7-4C71-4405-925F-BE1938A291C2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -898,4 +905,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D018AD65-D64F-4054-8783-58250C078171}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9409CA86-EE6A-4842-8B63-B6829C21755F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC39D6-6ECB-45A5-B1ED-DFEC6859BFAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -100,6 +101,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3222</t>
   </si>
 </sst>
 </file>
@@ -911,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D018AD65-D64F-4054-8783-58250C078171}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,4 +1009,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A74240-4D62-463C-A80D-B10399DA692D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC39D6-6ECB-45A5-B1ED-DFEC6859BFAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2693A31-DB38-42D9-98C5-507E87606AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
+    <sheet name="Italy" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -107,13 +108,19 @@
   </si>
   <si>
     <t>NGC-2930/T3222</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2155</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +139,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -214,6 +228,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,6 +1030,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A74240-4D62-463C-A80D-B10399DA692D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1105C5B4-54A5-40BE-BB53-F8E08577857B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1040,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1057,12 +1169,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2693A31-DB38-42D9-98C5-507E87606AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B058FD4-6DFA-4E82-9297-E3ABD91882FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
+    <sheet name="Spain" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -114,6 +115,12 @@
   </si>
   <si>
     <t>NGC-3145/T2155</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2034</t>
   </si>
 </sst>
 </file>
@@ -222,13 +229,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,12 +565,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -572,10 +579,10 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -655,12 +662,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -669,10 +676,10 @@
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -752,12 +759,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -766,10 +773,10 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -849,12 +856,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -863,10 +870,10 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -946,12 +953,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -960,10 +967,10 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1043,12 +1050,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1057,10 +1064,10 @@
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1127,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1105C5B4-54A5-40BE-BB53-F8E08577857B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1140,12 +1147,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1154,10 +1161,10 @@
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1173,7 +1180,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="5"/>
@@ -1182,6 +1189,103 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB4236-A78B-4A15-9727-CBC2546C5286}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B058FD4-6DFA-4E82-9297-E3ABD91882FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733CA3A7-CA21-47A9-AA97-8F9065247010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -121,6 +122,12 @@
   </si>
   <si>
     <t>NGC-3103/T2034</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3291</t>
   </si>
 </sst>
 </file>
@@ -1231,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB4236-A78B-4A15-9727-CBC2546C5286}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,4 +1329,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5E382-D805-4312-AE89-450CE795748A}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733CA3A7-CA21-47A9-AA97-8F9065247010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FC710F-61B9-4BC3-8221-80C2C9C0A328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -128,6 +129,12 @@
   </si>
   <si>
     <t>NGC-3191/T3291</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2424/T2415</t>
   </si>
 </sst>
 </file>
@@ -652,6 +659,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2F5733-F171-400C-82C7-DA10433E0A34}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE8CD95-9F65-4D3B-B38B-7AA37A3A2A3A}">
   <dimension ref="A1:D10"/>
@@ -1335,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5E382-D805-4312-AE89-450CE795748A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FC710F-61B9-4BC3-8221-80C2C9C0A328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AF3E3C-843B-44A4-BB83-9CEAAFDA418F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
     <sheet name="Croatia" sheetId="22" r:id="rId10"/>
+    <sheet name="Greece" sheetId="23" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -135,6 +136,12 @@
   </si>
   <si>
     <t>NGC-3139/T2424/T2415</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3167/T3166</t>
   </si>
 </sst>
 </file>
@@ -663,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2F5733-F171-400C-82C7-DA10433E0A34}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,6 +717,102 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B53B78-B850-4E40-A6FB-D319D74622AB}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AF3E3C-843B-44A4-BB83-9CEAAFDA418F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEEAB54-1BE3-496D-9F94-E5AABCA110A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
     <sheet name="Croatia" sheetId="22" r:id="rId10"/>
     <sheet name="Greece" sheetId="23" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="24" r:id="rId12"/>
+    <sheet name="Austria" sheetId="25" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="26" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -142,6 +145,24 @@
   </si>
   <si>
     <t>NGC-4119/T3167/T3166</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2176</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2272</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2749</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -766,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B53B78-B850-4E40-A6FB-D319D74622AB}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -813,6 +834,297 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA2B57D-E0CC-4D7C-981A-20DDB2D7ACBD}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABBAD50-1C97-4979-A8FC-AFB3A1DD0470}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A30A7D-66BB-4B83-BE2D-DFC49C70238E}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEEAB54-1BE3-496D-9F94-E5AABCA110A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733A7B8-5A4B-4E38-9366-08B96E36FA42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="24" r:id="rId12"/>
     <sheet name="Austria" sheetId="25" r:id="rId13"/>
     <sheet name="Denmark" sheetId="26" r:id="rId14"/>
+    <sheet name="Russia" sheetId="28" r:id="rId15"/>
+    <sheet name="Finland" sheetId="29" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="30" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="45">
   <si>
     <t>Wg</t>
   </si>
@@ -163,6 +166,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2900</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2943</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2992</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -883,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA2B57D-E0CC-4D7C-981A-20DDB2D7ACBD}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1170,6 +1191,294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC8FC7B-39F0-4ACA-A6AF-949ECAD1FCCB}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4FDE86-30FB-4D3E-8082-66AC30BEA6C7}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6AF903-FCE0-4591-AB64-81E345EBCD1D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE8CD95-9F65-4D3B-B38B-7AA37A3A2A3A}">
   <dimension ref="A1:D10"/>

--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733A7B8-5A4B-4E38-9366-08B96E36FA42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DBED0D-CB31-40E0-86AB-E3D56DC994C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="28" r:id="rId15"/>
     <sheet name="Finland" sheetId="29" r:id="rId16"/>
     <sheet name="Hungary" sheetId="30" r:id="rId17"/>
+    <sheet name="Norway" sheetId="31" r:id="rId18"/>
+    <sheet name="Poland" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="49">
   <si>
     <t>Wg</t>
   </si>
@@ -184,6 +186,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3601</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3100/T3104</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6AF903-FCE0-4591-AB64-81E345EBCD1D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1441,6 +1455,198 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F282776-7564-4567-8C4A-5767B73D6F03}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42780408-7971-4394-ACA9-41FF71660385}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Loops_ProPanels.xlsx
+++ b/Test Data/Gallery_Loops_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DBED0D-CB31-40E0-86AB-E3D56DC994C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD46B1-DF5B-472D-80C5-A66A728858CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="30" r:id="rId17"/>
     <sheet name="Norway" sheetId="31" r:id="rId18"/>
     <sheet name="Poland" sheetId="32" r:id="rId19"/>
+    <sheet name="UK" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="51">
   <si>
     <t>Wg</t>
   </si>
@@ -198,6 +199,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3343/T3339</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F282776-7564-4567-8C4A-5767B73D6F03}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1782,6 +1789,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E1B144-C0DD-4FD9-9F9B-BD60BABFB8B1}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D50661C-77E9-46BE-8028-3B29F065F6FB}">
   <dimension ref="A1:D10"/>
